--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3010.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3010.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172650678361056</v>
+        <v>1.270535349845886</v>
       </c>
       <c r="B1">
-        <v>2.403170552848284</v>
+        <v>1.638614773750305</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.227327823638916</v>
       </c>
       <c r="D1">
-        <v>2.313017843095706</v>
+        <v>6.290139198303223</v>
       </c>
       <c r="E1">
-        <v>1.201592540509011</v>
+        <v>2.998435497283936</v>
       </c>
     </row>
   </sheetData>
